--- a/output/2020_Q4_synoptics.xlsx
+++ b/output/2020_Q4_synoptics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12182747</t>
+          <t>12201139</t>
         </is>
       </c>
     </row>
@@ -389,7 +389,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12204558</t>
+          <t>12182790</t>
         </is>
       </c>
     </row>
@@ -401,7 +401,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12173295</t>
+          <t>12212151</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12189997</t>
+          <t>12184394</t>
         </is>
       </c>
     </row>
@@ -425,7 +425,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12207050</t>
+          <t>12212845</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12213767</t>
+          <t>12196116</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12204908</t>
+          <t>12174089</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12206115</t>
+          <t>12172833</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12184340</t>
+          <t>12199015</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12198824</t>
+          <t>12217099</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12216844</t>
+          <t>12217597</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12213636</t>
+          <t>12195501</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12180465</t>
+          <t>12183501</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12199015</t>
+          <t>12196038</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12183969</t>
+          <t>12189997</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12195629</t>
+          <t>12204473</t>
         </is>
       </c>
     </row>
@@ -569,487 +569,259 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12183541</t>
+          <t>12172722</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Colon</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12183518</t>
+          <t>12177172</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Colon</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12194630</t>
+          <t>12206945</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Colon</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12214659</t>
+          <t>12172916</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Colon</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12201139</t>
+          <t>12216415</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Colon</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12217360</t>
+          <t>12217875</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Kidney</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12214022</t>
+          <t>12191441</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Kidney</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12185819</t>
+          <t>12186976</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>Kidney</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12180391</t>
+          <t>12179670</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Breast</t>
+          <t>lung</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12195954</t>
+          <t>12183353</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colon</t>
+          <t>lung</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12196693</t>
+          <t>12179650</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Colon</t>
+          <t>Pancreas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12201593</t>
+          <t>12174395</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colon</t>
+          <t>Prostate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12195969</t>
+          <t>12184194</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colon</t>
+          <t>Prostate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12209239</t>
+          <t>12198201</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colon</t>
+          <t>Prostate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12188124</t>
+          <t>12186775</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colon</t>
+          <t>Prostate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12201662</t>
+          <t>12193953</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colon</t>
+          <t>Prostate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12202190</t>
+          <t>12212466</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kidney</t>
+          <t>Testis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12176325</t>
+          <t>12214431</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kidney</t>
+          <t>Tonsils / Adenoids</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12179670</t>
+          <t>12207895</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kidney</t>
+          <t>Uterus</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12182738</t>
+          <t>12193772</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Kidney</t>
+          <t>Uterus</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12205358</t>
+          <t>12210884</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lung</t>
+          <t>Uterus</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12172711</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>lung</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>12195973</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>lung</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>12185045</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Pancreas</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>12174395</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Pancreas</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>12198060</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Prostate</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>12179698</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Prostate</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>12208816</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Prostate</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>12172906</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Prostate</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>12180120</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Prostate</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>12215996</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Prostate</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>12194534</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Prostate</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>12186125</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Testis</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>12177664</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Tonsils / Adenoids</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>12207895</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Uterus</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>12202672</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Uterus</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>12214602</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Uterus</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>12193793</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Uterus</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>12187136</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Uterus</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>12210884</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Uterus</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>12182563</t>
+          <t>12201585</t>
         </is>
       </c>
     </row>

--- a/output/2020_Q4_synoptics.xlsx
+++ b/output/2020_Q4_synoptics.xlsx
@@ -828,4 +828,242 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055E7AF632A704D4CBB1BD9FA14B19970" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="787e44dd84078b6165072bff64e09332">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edae88a8-d9dc-4074-a55b-fb97cb2cd74d" xmlns:ns3="852f286e-3e14-48be-b416-81218d12f978" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2d4e4cd38ab3a23f51fecc8c992a902" ns2:_="" ns3:_="">
+    <xsd:import namespace="edae88a8-d9dc-4074-a55b-fb97cb2cd74d"/>
+    <xsd:import namespace="852f286e-3e14-48be-b416-81218d12f978"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="edae88a8-d9dc-4074-a55b-fb97cb2cd74d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="852f286e-3e14-48be-b416-81218d12f978" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76587F92-3659-4575-ABDF-081A1E5995CE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737C91E7-3482-4DD6-B962-BCFBE73340D3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D538B688-9736-436D-BC47-6FCE165926F4}"/>
 </file>
--- a/output/2020_Q4_synoptics.xlsx
+++ b/output/2020_Q4_synoptics.xlsx
@@ -828,242 +828,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055E7AF632A704D4CBB1BD9FA14B19970" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="787e44dd84078b6165072bff64e09332">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edae88a8-d9dc-4074-a55b-fb97cb2cd74d" xmlns:ns3="852f286e-3e14-48be-b416-81218d12f978" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b2d4e4cd38ab3a23f51fecc8c992a902" ns2:_="" ns3:_="">
-    <xsd:import namespace="edae88a8-d9dc-4074-a55b-fb97cb2cd74d"/>
-    <xsd:import namespace="852f286e-3e14-48be-b416-81218d12f978"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="edae88a8-d9dc-4074-a55b-fb97cb2cd74d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="852f286e-3e14-48be-b416-81218d12f978" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76587F92-3659-4575-ABDF-081A1E5995CE}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{737C91E7-3482-4DD6-B962-BCFBE73340D3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D538B688-9736-436D-BC47-6FCE165926F4}"/>
 </file>